--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_동해선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E09D6F-9735-40BB-9737-DC7659F9B76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421C3F7-C248-4BC3-8FC0-FBAE2C481FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
+    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
   <si>
     <t>MSE</t>
   </si>
@@ -134,6 +135,81 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균오차 및 오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +220,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +248,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,13 +301,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +323,10 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,12 +339,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6453,32 +6559,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE41FFE4-5112-42B8-8EC8-1CF00CC313D2}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -6490,7 +6596,7 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="10"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -6526,7 +6632,7 @@
       <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>45017</v>
       </c>
       <c r="E3" s="5">
@@ -6564,7 +6670,7 @@
       <c r="C4" s="3">
         <v>19</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>45047</v>
       </c>
       <c r="E4" s="5">
@@ -6602,7 +6708,7 @@
       <c r="C5" s="3">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>45078</v>
       </c>
       <c r="E5" s="5">
@@ -6640,7 +6746,7 @@
       <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>45108</v>
       </c>
       <c r="E6" s="5">
@@ -6678,7 +6784,7 @@
       <c r="C7" s="3">
         <v>19</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>45139</v>
       </c>
       <c r="E7" s="5">
@@ -6716,7 +6822,7 @@
       <c r="C8" s="3">
         <v>16</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>45170</v>
       </c>
       <c r="E8" s="5">
@@ -6754,7 +6860,7 @@
       <c r="C9" s="3">
         <v>18</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>45200</v>
       </c>
       <c r="E9" s="5">
@@ -6792,7 +6898,7 @@
       <c r="C10" s="3">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>45231</v>
       </c>
       <c r="E10" s="5">
@@ -6830,7 +6936,7 @@
       <c r="C11" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>45261</v>
       </c>
       <c r="E11" s="5">
@@ -6868,7 +6974,7 @@
       <c r="C12" s="3">
         <v>19</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>45292</v>
       </c>
       <c r="E12" s="5">
@@ -6906,7 +7012,7 @@
       <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>45323</v>
       </c>
       <c r="E13" s="5">
@@ -6933,24 +7039,24 @@
         <f>Forecasting_주중!D12</f>
         <v>288357</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" s="8" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="str">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6" t="str">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -6962,7 +7068,7 @@
       <c r="C14" s="3">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>45352</v>
       </c>
       <c r="E14" s="5">
@@ -6989,7 +7095,7 @@
         <f>Forecasting_주중!D13</f>
         <v>289904.25</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="11"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NHITS</v>
@@ -7022,7 +7128,7 @@
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>45383</v>
       </c>
       <c r="E15" s="5">
@@ -7088,7 +7194,7 @@
       <c r="C16" s="3">
         <v>18</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>45413</v>
       </c>
       <c r="E16" s="5">
@@ -7154,7 +7260,7 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>45444</v>
       </c>
       <c r="E17" s="5">
@@ -7220,7 +7326,7 @@
       <c r="C18" s="3">
         <v>19</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>45474</v>
       </c>
       <c r="E18" s="5">
@@ -7286,7 +7392,7 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>45505</v>
       </c>
       <c r="E19" s="5">
@@ -7352,7 +7458,7 @@
       <c r="C20" s="3">
         <v>17</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>45536</v>
       </c>
       <c r="E20" s="5">
@@ -7418,7 +7524,7 @@
       <c r="C21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>45566</v>
       </c>
       <c r="E21" s="5">
@@ -7484,7 +7590,7 @@
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>45597</v>
       </c>
       <c r="E22" s="5">
@@ -7550,7 +7656,7 @@
       <c r="C23" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>45627</v>
       </c>
       <c r="E23" s="5">
@@ -7616,7 +7722,7 @@
       <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>45658</v>
       </c>
       <c r="E24" s="5">
@@ -7682,7 +7788,7 @@
       <c r="C25" s="3">
         <v>16</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>45689</v>
       </c>
       <c r="E25" s="5">
@@ -7748,7 +7854,7 @@
       <c r="C26" s="3">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>45717</v>
       </c>
       <c r="E26" s="5">
@@ -7814,7 +7920,7 @@
       <c r="C27" s="3">
         <v>18</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>45748</v>
       </c>
       <c r="E27" s="5">
@@ -7880,7 +7986,7 @@
       <c r="C28" s="3">
         <v>17</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>45778</v>
       </c>
       <c r="E28" s="5">
@@ -7946,7 +8052,7 @@
       <c r="C29" s="3">
         <v>17</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>45809</v>
       </c>
       <c r="E29" s="5">
@@ -8012,7 +8118,7 @@
       <c r="C30" s="3">
         <v>19</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>45839</v>
       </c>
       <c r="E30" s="5">
@@ -8078,7 +8184,7 @@
       <c r="C31" s="3">
         <v>16</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>45870</v>
       </c>
       <c r="E31" s="5">
@@ -8144,7 +8250,7 @@
       <c r="C32" s="3">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>45901</v>
       </c>
       <c r="E32" s="5">
@@ -8210,7 +8316,7 @@
       <c r="C33" s="3">
         <v>18</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>45931</v>
       </c>
       <c r="E33" s="5">
@@ -8276,7 +8382,7 @@
       <c r="C34" s="3">
         <v>16</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
         <v>45962</v>
       </c>
       <c r="E34" s="5">
@@ -8342,7 +8448,7 @@
       <c r="C35" s="3">
         <v>19</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>45992</v>
       </c>
       <c r="E35" s="5">
@@ -8412,4 +8518,807 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9BC422-5A5F-46DF-9513-99FC81AC4A0F}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.08203125" customWidth="1"/>
+    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.08203125" customWidth="1"/>
+    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Forecasting_전체!C2</f>
+        <v>565822</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Forecasting_전체!D2</f>
+        <v>553139.25</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3-C3</f>
+        <v>-12682.75</v>
+      </c>
+      <c r="F3" s="17">
+        <f>E3/C3</f>
+        <v>-2.2414734669206925E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Forecasting_주말!C2</f>
+        <v>297771</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Forecasting_주말!D2</f>
+        <v>249049.703125</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3-G3</f>
+        <v>-48721.296875</v>
+      </c>
+      <c r="J3" s="17">
+        <f>I3/G3</f>
+        <v>-0.16362001966276099</v>
+      </c>
+      <c r="K3" s="5">
+        <f>Forecasting_주중!C2</f>
+        <v>268051</v>
+      </c>
+      <c r="L3" s="5">
+        <f>Forecasting_주중!D2</f>
+        <v>273565.71875</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3-K3</f>
+        <v>5514.71875</v>
+      </c>
+      <c r="N3" s="17">
+        <f>M3/K3</f>
+        <v>2.0573393682545484E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Forecasting_전체!C3</f>
+        <v>609128</v>
+      </c>
+      <c r="D4" s="5">
+        <f>Forecasting_전체!D3</f>
+        <v>556275.6875</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+        <v>-52852.3125</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+        <v>-8.6767169626088436E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Forecasting_주말!C3</f>
+        <v>263870</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Forecasting_주말!D3</f>
+        <v>260315.15625</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+        <v>-3554.84375</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+        <v>-1.3471951150187593E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f>Forecasting_주중!C3</f>
+        <v>345258</v>
+      </c>
+      <c r="L4" s="5">
+        <f>Forecasting_주중!D3</f>
+        <v>269914.75</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+        <v>-75343.25</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+        <v>-0.21822303900271681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Forecasting_전체!C4</f>
+        <v>567550</v>
+      </c>
+      <c r="D5" s="5">
+        <f>Forecasting_전체!D4</f>
+        <v>543910.5</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>-23639.5</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>-4.1651836842568936E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Forecasting_주말!C4</f>
+        <v>272448</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Forecasting_주말!D4</f>
+        <v>238090.0625</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>-34357.9375</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.12610823900340615</v>
+      </c>
+      <c r="K5" s="5">
+        <f>Forecasting_주중!C4</f>
+        <v>295102</v>
+      </c>
+      <c r="L5" s="5">
+        <f>Forecasting_주중!D4</f>
+        <v>276487.75</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>-18614.25</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="5"/>
+        <v>-6.3077342749286683E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Forecasting_전체!C5</f>
+        <v>570404</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Forecasting_전체!D5</f>
+        <v>551994.6875</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>-18409.3125</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>-3.2274164451862188E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Forecasting_주말!C5</f>
+        <v>280402</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Forecasting_주말!D5</f>
+        <v>242848.421875</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>-37553.578125</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.13392764004892976</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Forecasting_주중!C5</f>
+        <v>290002</v>
+      </c>
+      <c r="L6" s="5">
+        <f>Forecasting_주중!D5</f>
+        <v>282261.625</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>-7740.375</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.6690764201626197E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Forecasting_전체!C6</f>
+        <v>582320</v>
+      </c>
+      <c r="D7" s="5">
+        <f>Forecasting_전체!D6</f>
+        <v>551066.4375</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>-31253.5625</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>-5.3670769508174197E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Forecasting_주말!C6</f>
+        <v>249895</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Forecasting_주말!D6</f>
+        <v>243295.984375</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>-6599.015625</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.6407153504471877E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Forecasting_주중!C6</f>
+        <v>332425</v>
+      </c>
+      <c r="L7" s="5">
+        <f>Forecasting_주중!D6</f>
+        <v>281937.78125</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>-50487.21875</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.15187551703391741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Forecasting_전체!C7</f>
+        <v>549980</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Forecasting_전체!D7</f>
+        <v>563852.375</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>13872.375</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>2.5223417215171462E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Forecasting_주말!C7</f>
+        <v>275474</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Forecasting_주말!D7</f>
+        <v>265386.78125</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>-10087.21875</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="3"/>
+        <v>-3.6617679889935167E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Forecasting_주중!C7</f>
+        <v>274506</v>
+      </c>
+      <c r="L8" s="5">
+        <f>Forecasting_주중!D7</f>
+        <v>281716.875</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
+        <v>7210.875</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="5"/>
+        <v>2.6268551507070883E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Forecasting_전체!C8</f>
+        <v>605377</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Forecasting_전체!D8</f>
+        <v>560933.25</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>-44443.75</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>-7.3414995944675793E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Forecasting_주말!C8</f>
+        <v>283487</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Forecasting_주말!D8</f>
+        <v>259016.546875</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>-24470.453125</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.6319489518037862E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Forecasting_주중!C8</f>
+        <v>321890</v>
+      </c>
+      <c r="L9" s="5">
+        <f>Forecasting_주중!D8</f>
+        <v>282932.875</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>-38957.125</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.12102620460405729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Forecasting_전체!C9</f>
+        <v>587287</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Forecasting_전체!D9</f>
+        <v>554020.5</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>-33266.5</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>-5.664436638304611E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Forecasting_주말!C9</f>
+        <v>281015</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Forecasting_주말!D9</f>
+        <v>255032.234375</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>-25982.765625</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.2460422486344146E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Forecasting_주중!C9</f>
+        <v>306272</v>
+      </c>
+      <c r="L10" s="5">
+        <f>Forecasting_주중!D9</f>
+        <v>288702.25</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
+        <v>-17569.75</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="5"/>
+        <v>-5.7366491223487616E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Forecasting_전체!C10</f>
+        <v>612267</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Forecasting_전체!D10</f>
+        <v>557554.9375</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>-54712.0625</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
+        <v>-8.9359809527542716E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Forecasting_주말!C10</f>
+        <v>324842</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Forecasting_주말!D10</f>
+        <v>267236.6875</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>-57605.3125</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17733332666342405</v>
+      </c>
+      <c r="K11" s="5">
+        <f>Forecasting_주중!C10</f>
+        <v>287425</v>
+      </c>
+      <c r="L11" s="5">
+        <f>Forecasting_주중!D10</f>
+        <v>288293.71875</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>868.71875</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="5"/>
+        <v>3.0224188918848397E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Forecasting_전체!C11</f>
+        <v>558618</v>
+      </c>
+      <c r="D12" s="5">
+        <f>Forecasting_전체!D11</f>
+        <v>561895.6875</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>3277.6875</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
+        <v>5.8674935286725455E-3</v>
+      </c>
+      <c r="G12" s="5">
+        <f>Forecasting_주말!C11</f>
+        <v>240495</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Forecasting_주말!D11</f>
+        <v>268109.28125</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>27614.28125</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1148226834237718</v>
+      </c>
+      <c r="K12" s="5">
+        <f>Forecasting_주중!C11</f>
+        <v>318123</v>
+      </c>
+      <c r="L12" s="5">
+        <f>Forecasting_주중!D11</f>
+        <v>289069.46875</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>-29053.53125</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="5"/>
+        <v>-9.1327980843887421E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Forecasting_전체!C12</f>
+        <v>583061</v>
+      </c>
+      <c r="D13" s="5">
+        <f>Forecasting_전체!D12</f>
+        <v>571821.3125</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>-11239.6875</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.92770353359254E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f>Forecasting_주말!C12</f>
+        <v>251132</v>
+      </c>
+      <c r="H13" s="5">
+        <f>Forecasting_주말!D12</f>
+        <v>273172.71875</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>22040.71875</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="3"/>
+        <v>8.7765472938534317E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f>Forecasting_주중!C12</f>
+        <v>331929</v>
+      </c>
+      <c r="L13" s="5">
+        <f>Forecasting_주중!D12</f>
+        <v>288357</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>-43572</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.13126903645056623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Forecasting_전체!C13</f>
+        <v>577560</v>
+      </c>
+      <c r="D14" s="5">
+        <f>Forecasting_전체!D13</f>
+        <v>581484.5625</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>3924.5625</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
+        <v>6.7950732391439854E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <f>Forecasting_주말!C13</f>
+        <v>319320</v>
+      </c>
+      <c r="H14" s="5">
+        <f>Forecasting_주말!D13</f>
+        <v>292669.0625</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>-26650.9375</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.3461535450331956E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <f>Forecasting_주중!C13</f>
+        <v>258240</v>
+      </c>
+      <c r="L14" s="5">
+        <f>Forecasting_주중!D13</f>
+        <v>289904.25</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>31664.25</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.12261559014869888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18">
+        <f>AVERAGE(C3:C14)</f>
+        <v>580781.16666666663</v>
+      </c>
+      <c r="D15" s="18">
+        <f>AVERAGE(D3:D14)</f>
+        <v>558995.765625</v>
+      </c>
+      <c r="E15" s="18">
+        <f>AVERAGE(E3:E14)</f>
+        <v>-21785.401041666668</v>
+      </c>
+      <c r="F15" s="17">
+        <f>AVERAGE(F3:F14)</f>
+        <v>-3.6465741525508556E-2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>AVERAGE(G3:G14)</f>
+        <v>278345.91666666669</v>
+      </c>
+      <c r="H15" s="18">
+        <f>AVERAGE(H3:H14)</f>
+        <v>259518.55338541666</v>
+      </c>
+      <c r="I15" s="18">
+        <f>AVERAGE(I3:I14)</f>
+        <v>-18827.36328125</v>
+      </c>
+      <c r="J15" s="17">
+        <f>AVERAGE(J3:J14)</f>
+        <v>-6.1428275084626949E-2</v>
+      </c>
+      <c r="K15" s="18">
+        <f>AVERAGE(K3:K14)</f>
+        <v>302435.25</v>
+      </c>
+      <c r="L15" s="18">
+        <f>AVERAGE(L3:L14)</f>
+        <v>282762.00520833331</v>
+      </c>
+      <c r="M15" s="18">
+        <f>AVERAGE(M3:M14)</f>
+        <v>-19673.244791666668</v>
+      </c>
+      <c r="N15" s="17">
+        <f>AVERAGE(N3:N14)</f>
+        <v>-5.7364701823278796E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_동해선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421C3F7-C248-4BC3-8FC0-FBAE2C481FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5082C3BD-093C-4F88-8DCB-9166E8EA1A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
-    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>MSE</t>
   </si>
@@ -135,81 +134,6 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>10월</t>
-  </si>
-  <si>
-    <t>11월</t>
-  </si>
-  <si>
-    <t>12월</t>
-  </si>
-  <si>
-    <t>2024년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균오차 및 오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -220,7 +144,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,15 +172,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,16 +216,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -339,26 +251,8 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1426,13 +1320,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1375,7 @@
         <v>3.6963000647215562E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1401,7 @@
         <v>5.1834334878135838E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1427,7 @@
         <v>5.1834334878135838E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1453,7 @@
         <v>6.3110273306352271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1479,7 @@
         <v>0.1102328357709845</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1505,7 @@
         <v>0.16199204444667631</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +1531,7 @@
         <v>0.1441033305600998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1663,7 +1557,7 @@
         <v>0.28531768395333712</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1583,7 @@
         <v>0.29767251473679851</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1730,9 +1624,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -1814,7 +1708,7 @@
         <v>1851133.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -1855,7 +1749,7 @@
         <v>1719730.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -1896,7 +1790,7 @@
         <v>1802634.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -1937,7 +1831,7 @@
         <v>2152116</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -1978,7 +1872,7 @@
         <v>2501325.75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -2019,7 +1913,7 @@
         <v>2503030</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -2060,7 +1954,7 @@
         <v>2474037.75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -2101,7 +1995,7 @@
         <v>2528219.75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -2142,7 +2036,7 @@
         <v>2515750</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -2183,7 +2077,7 @@
         <v>2721333.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -2224,7 +2118,7 @@
         <v>2610342.25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -2265,7 +2159,7 @@
         <v>2694789.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -2306,7 +2200,7 @@
         <v>2621490.25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -2347,7 +2241,7 @@
         <v>2605396.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -2388,7 +2282,7 @@
         <v>2903759.5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -2429,7 +2323,7 @@
         <v>218743520</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -2470,7 +2364,7 @@
         <v>220159296</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -2511,7 +2405,7 @@
         <v>221435152</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -2552,7 +2446,7 @@
         <v>223520224</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -2593,7 +2487,7 @@
         <v>225651360</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -2634,7 +2528,7 @@
         <v>227808944</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -2675,7 +2569,7 @@
         <v>228384384</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -2716,7 +2610,7 @@
         <v>229261568</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -2757,7 +2651,7 @@
         <v>229243264</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -2798,7 +2692,7 @@
         <v>229672832</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -2839,7 +2733,7 @@
         <v>230115552</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -2880,7 +2774,7 @@
         <v>231051584</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -2921,7 +2815,7 @@
         <v>232358928</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -2962,7 +2856,7 @@
         <v>230617008</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -3003,7 +2897,7 @@
         <v>230814176</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -3044,7 +2938,7 @@
         <v>228060224</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -3085,7 +2979,7 @@
         <v>227854208</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -3141,9 +3035,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3192,7 +3086,7 @@
         <v>9.0112947712439231E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +3112,7 @@
         <v>0.1005700084158398</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3244,7 +3138,7 @@
         <v>9.3302762179449203E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3270,7 +3164,7 @@
         <v>9.3302762179449203E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3296,7 +3190,7 @@
         <v>9.7086044155734408E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3322,7 +3216,7 @@
         <v>0.13393613171995919</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3348,7 +3242,7 @@
         <v>0.1210153288483522</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3268,7 @@
         <v>0.14683435644480819</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3400,7 +3294,7 @@
         <v>0.20676299252136041</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3441,9 +3335,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3484,7 +3378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -3525,7 +3419,7 @@
         <v>468559.59375</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -3566,7 +3460,7 @@
         <v>426016.5625</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -3607,7 +3501,7 @@
         <v>500757.90625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -3648,7 +3542,7 @@
         <v>559680.875</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -3689,7 +3583,7 @@
         <v>549440.8125</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -3730,7 +3624,7 @@
         <v>586790.625</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -3771,7 +3665,7 @@
         <v>563668.3125</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -3812,7 +3706,7 @@
         <v>539589.8125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -3853,7 +3747,7 @@
         <v>612753.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -3894,7 +3788,7 @@
         <v>609771.5625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -3935,7 +3829,7 @@
         <v>606973.125</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -3976,7 +3870,7 @@
         <v>623919.0625</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -4017,7 +3911,7 @@
         <v>633407.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -4058,7 +3952,7 @@
         <v>676692.9375</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -4099,7 +3993,7 @@
         <v>1053651.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -4140,7 +4034,7 @@
         <v>41812960</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -4181,7 +4075,7 @@
         <v>41788552</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -4222,7 +4116,7 @@
         <v>42360300</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -4263,7 +4157,7 @@
         <v>42401704</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -4304,7 +4198,7 @@
         <v>42625864</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -4345,7 +4239,7 @@
         <v>43350184</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -4386,7 +4280,7 @@
         <v>44541784</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -4427,7 +4321,7 @@
         <v>44519932</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -4468,7 +4362,7 @@
         <v>44527812</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -4509,7 +4403,7 @@
         <v>44510040</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -4550,7 +4444,7 @@
         <v>44478164</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -4591,7 +4485,7 @@
         <v>44519336</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -4632,7 +4526,7 @@
         <v>44881460</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -4673,7 +4567,7 @@
         <v>44510148</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -4714,7 +4608,7 @@
         <v>44512284</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -4755,7 +4649,7 @@
         <v>42661712</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -4796,7 +4690,7 @@
         <v>44480520</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -4852,9 +4746,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4877,7 +4771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4797,7 @@
         <v>7.7202661796587052E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4929,7 +4823,7 @@
         <v>7.7202661796587052E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4955,7 +4849,7 @@
         <v>9.753656178872043E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4981,7 +4875,7 @@
         <v>0.1174507198175755</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5007,7 +4901,7 @@
         <v>0.11643588484859679</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -5033,7 +4927,7 @@
         <v>0.24073855450060341</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -5059,7 +4953,7 @@
         <v>0.25607676490940462</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5085,7 +4979,7 @@
         <v>0.34565701970675872</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -5111,7 +5005,7 @@
         <v>0.37101889921943498</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -5152,9 +5046,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5195,7 +5089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -5236,7 +5130,7 @@
         <v>707919.625</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -5277,7 +5171,7 @@
         <v>675956.9375</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -5318,7 +5212,7 @@
         <v>724137.8125</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -5359,7 +5253,7 @@
         <v>760872.0625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -5400,7 +5294,7 @@
         <v>857375</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -5441,7 +5335,7 @@
         <v>869574</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -5482,7 +5376,7 @@
         <v>814039.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -5523,7 +5417,7 @@
         <v>916811.8125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -5564,7 +5458,7 @@
         <v>888707</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -5605,7 +5499,7 @@
         <v>893732.375</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -5646,7 +5540,7 @@
         <v>901096.625</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -5687,7 +5581,7 @@
         <v>924183</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -5728,7 +5622,7 @@
         <v>939073.8125</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -5769,7 +5663,7 @@
         <v>968328.25</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -5810,7 +5704,7 @@
         <v>1087346.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -5851,7 +5745,7 @@
         <v>70583056</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -5892,7 +5786,7 @@
         <v>71929632</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -5933,7 +5827,7 @@
         <v>72617096</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -5974,7 +5868,7 @@
         <v>72695592</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -6015,7 +5909,7 @@
         <v>73079616</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -6056,7 +5950,7 @@
         <v>73135656</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -6097,7 +5991,7 @@
         <v>73173760</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -6138,7 +6032,7 @@
         <v>73144920</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -6179,7 +6073,7 @@
         <v>73932048</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -6220,7 +6114,7 @@
         <v>73943424</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -6261,7 +6155,7 @@
         <v>74183056</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -6302,7 +6196,7 @@
         <v>73965624</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -6343,7 +6237,7 @@
         <v>74201872</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -6384,7 +6278,7 @@
         <v>73962400</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -6425,7 +6319,7 @@
         <v>74231000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -6466,7 +6360,7 @@
         <v>73997952</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -6507,7 +6401,7 @@
         <v>73363648</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -6563,13 +6457,13 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
@@ -6586,7 +6480,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -6622,7 +6516,7 @@
         <v>NBEATS</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -6660,7 +6554,7 @@
         <v>273565.71875</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -6698,7 +6592,7 @@
         <v>269914.75</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -6736,7 +6630,7 @@
         <v>276487.75</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -6774,7 +6668,7 @@
         <v>282261.625</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>31</v>
       </c>
@@ -6812,7 +6706,7 @@
         <v>281937.78125</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -6850,7 +6744,7 @@
         <v>281716.875</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -6888,7 +6782,7 @@
         <v>282932.875</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -6926,7 +6820,7 @@
         <v>288702.25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -6964,7 +6858,7 @@
         <v>288293.71875</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>31</v>
       </c>
@@ -7002,7 +6896,7 @@
         <v>289069.46875</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>29</v>
       </c>
@@ -7058,7 +6952,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>31</v>
       </c>
@@ -7118,7 +7012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>30</v>
       </c>
@@ -7184,7 +7078,7 @@
         <v>16100.762152777777</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>31</v>
       </c>
@@ -7250,7 +7144,7 @@
         <v>16266.131944444445</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -7316,7 +7210,7 @@
         <v>18598.892578125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -7382,7 +7276,7 @@
         <v>15668.230263157895</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -7448,7 +7342,7 @@
         <v>17638.919117647059</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -7514,7 +7408,7 @@
         <v>17544.8125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -7580,7 +7474,7 @@
         <v>15876.97697368421</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -7646,7 +7540,7 @@
         <v>19047.041015625</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -7712,7 +7606,7 @@
         <v>17066.079861111109</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -7778,7 +7672,7 @@
         <v>16905.805555555555</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -7844,7 +7738,7 @@
         <v>19119.373046875</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -7910,7 +7804,7 @@
         <v>18092.700367647059</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -7976,7 +7870,7 @@
         <v>17053.381944444445</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -8042,7 +7936,7 @@
         <v>18073.244485294119</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -8108,7 +8002,7 @@
         <v>18142.259191176472</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -8174,7 +8068,7 @@
         <v>16196.740131578947</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -8240,7 +8134,7 @@
         <v>19359.55078125</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -8306,7 +8200,7 @@
         <v>17367.65625</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -8372,7 +8266,7 @@
         <v>17451.223958333332</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -8438,7 +8332,7 @@
         <v>19989.68359375</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -8518,807 +8412,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9BC422-5A5F-46DF-9513-99FC81AC4A0F}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.08203125" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5">
-        <f>Forecasting_전체!C2</f>
-        <v>565822</v>
-      </c>
-      <c r="D3" s="5">
-        <f>Forecasting_전체!D2</f>
-        <v>553139.25</v>
-      </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
-        <v>-12682.75</v>
-      </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
-        <v>-2.2414734669206925E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>Forecasting_주말!C2</f>
-        <v>297771</v>
-      </c>
-      <c r="H3" s="5">
-        <f>Forecasting_주말!D2</f>
-        <v>249049.703125</v>
-      </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
-        <v>-48721.296875</v>
-      </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
-        <v>-0.16362001966276099</v>
-      </c>
-      <c r="K3" s="5">
-        <f>Forecasting_주중!C2</f>
-        <v>268051</v>
-      </c>
-      <c r="L3" s="5">
-        <f>Forecasting_주중!D2</f>
-        <v>273565.71875</v>
-      </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
-        <v>5514.71875</v>
-      </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
-        <v>2.0573393682545484E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5">
-        <f>Forecasting_전체!C3</f>
-        <v>609128</v>
-      </c>
-      <c r="D4" s="5">
-        <f>Forecasting_전체!D3</f>
-        <v>556275.6875</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
-        <v>-52852.3125</v>
-      </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
-        <v>-8.6767169626088436E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <f>Forecasting_주말!C3</f>
-        <v>263870</v>
-      </c>
-      <c r="H4" s="5">
-        <f>Forecasting_주말!D3</f>
-        <v>260315.15625</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
-        <v>-3554.84375</v>
-      </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
-        <v>-1.3471951150187593E-2</v>
-      </c>
-      <c r="K4" s="5">
-        <f>Forecasting_주중!C3</f>
-        <v>345258</v>
-      </c>
-      <c r="L4" s="5">
-        <f>Forecasting_주중!D3</f>
-        <v>269914.75</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
-        <v>-75343.25</v>
-      </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
-        <v>-0.21822303900271681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5">
-        <f>Forecasting_전체!C4</f>
-        <v>567550</v>
-      </c>
-      <c r="D5" s="5">
-        <f>Forecasting_전체!D4</f>
-        <v>543910.5</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>-23639.5</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" si="1"/>
-        <v>-4.1651836842568936E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <f>Forecasting_주말!C4</f>
-        <v>272448</v>
-      </c>
-      <c r="H5" s="5">
-        <f>Forecasting_주말!D4</f>
-        <v>238090.0625</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="2"/>
-        <v>-34357.9375</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.12610823900340615</v>
-      </c>
-      <c r="K5" s="5">
-        <f>Forecasting_주중!C4</f>
-        <v>295102</v>
-      </c>
-      <c r="L5" s="5">
-        <f>Forecasting_주중!D4</f>
-        <v>276487.75</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>-18614.25</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="5"/>
-        <v>-6.3077342749286683E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5">
-        <f>Forecasting_전체!C5</f>
-        <v>570404</v>
-      </c>
-      <c r="D6" s="5">
-        <f>Forecasting_전체!D5</f>
-        <v>551994.6875</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>-18409.3125</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" si="1"/>
-        <v>-3.2274164451862188E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <f>Forecasting_주말!C5</f>
-        <v>280402</v>
-      </c>
-      <c r="H6" s="5">
-        <f>Forecasting_주말!D5</f>
-        <v>242848.421875</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>-37553.578125</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.13392764004892976</v>
-      </c>
-      <c r="K6" s="5">
-        <f>Forecasting_주중!C5</f>
-        <v>290002</v>
-      </c>
-      <c r="L6" s="5">
-        <f>Forecasting_주중!D5</f>
-        <v>282261.625</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>-7740.375</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="shared" si="5"/>
-        <v>-2.6690764201626197E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5">
-        <f>Forecasting_전체!C6</f>
-        <v>582320</v>
-      </c>
-      <c r="D7" s="5">
-        <f>Forecasting_전체!D6</f>
-        <v>551066.4375</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>-31253.5625</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="1"/>
-        <v>-5.3670769508174197E-2</v>
-      </c>
-      <c r="G7" s="5">
-        <f>Forecasting_주말!C6</f>
-        <v>249895</v>
-      </c>
-      <c r="H7" s="5">
-        <f>Forecasting_주말!D6</f>
-        <v>243295.984375</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>-6599.015625</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="3"/>
-        <v>-2.6407153504471877E-2</v>
-      </c>
-      <c r="K7" s="5">
-        <f>Forecasting_주중!C6</f>
-        <v>332425</v>
-      </c>
-      <c r="L7" s="5">
-        <f>Forecasting_주중!D6</f>
-        <v>281937.78125</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>-50487.21875</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.15187551703391741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5">
-        <f>Forecasting_전체!C7</f>
-        <v>549980</v>
-      </c>
-      <c r="D8" s="5">
-        <f>Forecasting_전체!D7</f>
-        <v>563852.375</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>13872.375</v>
-      </c>
-      <c r="F8" s="17">
-        <f t="shared" si="1"/>
-        <v>2.5223417215171462E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f>Forecasting_주말!C7</f>
-        <v>275474</v>
-      </c>
-      <c r="H8" s="5">
-        <f>Forecasting_주말!D7</f>
-        <v>265386.78125</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>-10087.21875</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="3"/>
-        <v>-3.6617679889935167E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <f>Forecasting_주중!C7</f>
-        <v>274506</v>
-      </c>
-      <c r="L8" s="5">
-        <f>Forecasting_주중!D7</f>
-        <v>281716.875</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="4"/>
-        <v>7210.875</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="shared" si="5"/>
-        <v>2.6268551507070883E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5">
-        <f>Forecasting_전체!C8</f>
-        <v>605377</v>
-      </c>
-      <c r="D9" s="5">
-        <f>Forecasting_전체!D8</f>
-        <v>560933.25</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>-44443.75</v>
-      </c>
-      <c r="F9" s="17">
-        <f t="shared" si="1"/>
-        <v>-7.3414995944675793E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>Forecasting_주말!C8</f>
-        <v>283487</v>
-      </c>
-      <c r="H9" s="5">
-        <f>Forecasting_주말!D8</f>
-        <v>259016.546875</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>-24470.453125</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>-8.6319489518037862E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <f>Forecasting_주중!C8</f>
-        <v>321890</v>
-      </c>
-      <c r="L9" s="5">
-        <f>Forecasting_주중!D8</f>
-        <v>282932.875</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="4"/>
-        <v>-38957.125</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.12102620460405729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5">
-        <f>Forecasting_전체!C9</f>
-        <v>587287</v>
-      </c>
-      <c r="D10" s="5">
-        <f>Forecasting_전체!D9</f>
-        <v>554020.5</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>-33266.5</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="1"/>
-        <v>-5.664436638304611E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <f>Forecasting_주말!C9</f>
-        <v>281015</v>
-      </c>
-      <c r="H10" s="5">
-        <f>Forecasting_주말!D9</f>
-        <v>255032.234375</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>-25982.765625</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>-9.2460422486344146E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <f>Forecasting_주중!C9</f>
-        <v>306272</v>
-      </c>
-      <c r="L10" s="5">
-        <f>Forecasting_주중!D9</f>
-        <v>288702.25</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="4"/>
-        <v>-17569.75</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="5"/>
-        <v>-5.7366491223487616E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5">
-        <f>Forecasting_전체!C10</f>
-        <v>612267</v>
-      </c>
-      <c r="D11" s="5">
-        <f>Forecasting_전체!D10</f>
-        <v>557554.9375</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>-54712.0625</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="1"/>
-        <v>-8.9359809527542716E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>Forecasting_주말!C10</f>
-        <v>324842</v>
-      </c>
-      <c r="H11" s="5">
-        <f>Forecasting_주말!D10</f>
-        <v>267236.6875</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>-57605.3125</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.17733332666342405</v>
-      </c>
-      <c r="K11" s="5">
-        <f>Forecasting_주중!C10</f>
-        <v>287425</v>
-      </c>
-      <c r="L11" s="5">
-        <f>Forecasting_주중!D10</f>
-        <v>288293.71875</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="4"/>
-        <v>868.71875</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="5"/>
-        <v>3.0224188918848397E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5">
-        <f>Forecasting_전체!C11</f>
-        <v>558618</v>
-      </c>
-      <c r="D12" s="5">
-        <f>Forecasting_전체!D11</f>
-        <v>561895.6875</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>3277.6875</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="1"/>
-        <v>5.8674935286725455E-3</v>
-      </c>
-      <c r="G12" s="5">
-        <f>Forecasting_주말!C11</f>
-        <v>240495</v>
-      </c>
-      <c r="H12" s="5">
-        <f>Forecasting_주말!D11</f>
-        <v>268109.28125</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>27614.28125</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="3"/>
-        <v>0.1148226834237718</v>
-      </c>
-      <c r="K12" s="5">
-        <f>Forecasting_주중!C11</f>
-        <v>318123</v>
-      </c>
-      <c r="L12" s="5">
-        <f>Forecasting_주중!D11</f>
-        <v>289069.46875</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="4"/>
-        <v>-29053.53125</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" si="5"/>
-        <v>-9.1327980843887421E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5">
-        <f>Forecasting_전체!C12</f>
-        <v>583061</v>
-      </c>
-      <c r="D13" s="5">
-        <f>Forecasting_전체!D12</f>
-        <v>571821.3125</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>-11239.6875</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="1"/>
-        <v>-1.92770353359254E-2</v>
-      </c>
-      <c r="G13" s="5">
-        <f>Forecasting_주말!C12</f>
-        <v>251132</v>
-      </c>
-      <c r="H13" s="5">
-        <f>Forecasting_주말!D12</f>
-        <v>273172.71875</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>22040.71875</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="3"/>
-        <v>8.7765472938534317E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <f>Forecasting_주중!C12</f>
-        <v>331929</v>
-      </c>
-      <c r="L13" s="5">
-        <f>Forecasting_주중!D12</f>
-        <v>288357</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="4"/>
-        <v>-43572</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.13126903645056623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5">
-        <f>Forecasting_전체!C13</f>
-        <v>577560</v>
-      </c>
-      <c r="D14" s="5">
-        <f>Forecasting_전체!D13</f>
-        <v>581484.5625</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>3924.5625</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="1"/>
-        <v>6.7950732391439854E-3</v>
-      </c>
-      <c r="G14" s="5">
-        <f>Forecasting_주말!C13</f>
-        <v>319320</v>
-      </c>
-      <c r="H14" s="5">
-        <f>Forecasting_주말!D13</f>
-        <v>292669.0625</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>-26650.9375</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="3"/>
-        <v>-8.3461535450331956E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <f>Forecasting_주중!C13</f>
-        <v>258240</v>
-      </c>
-      <c r="L14" s="5">
-        <f>Forecasting_주중!D13</f>
-        <v>289904.25</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>31664.25</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="5"/>
-        <v>0.12261559014869888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
-        <v>580781.16666666663</v>
-      </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
-        <v>558995.765625</v>
-      </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
-        <v>-21785.401041666668</v>
-      </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
-        <v>-3.6465741525508556E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
-        <v>278345.91666666669</v>
-      </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
-        <v>259518.55338541666</v>
-      </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
-        <v>-18827.36328125</v>
-      </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
-        <v>-6.1428275084626949E-2</v>
-      </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
-        <v>302435.25</v>
-      </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
-        <v>282762.00520833331</v>
-      </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
-        <v>-19673.244791666668</v>
-      </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
-        <v>-5.7364701823278796E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>